--- a/.paper/Highly_Phosphorylated_IDR_Potential_CDK_MLO.xlsx
+++ b/.paper/Highly_Phosphorylated_IDR_Potential_CDK_MLO.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="86">
   <si>
     <t xml:space="preserve">Identifiers</t>
   </si>
@@ -37,6 +37,9 @@
     <t xml:space="preserve">Uniprot Human</t>
   </si>
   <si>
+    <t xml:space="preserve">PROTEIN</t>
+  </si>
+  <si>
     <t xml:space="preserve">disordered</t>
   </si>
   <si>
@@ -58,6 +61,9 @@
     <t xml:space="preserve">P42695</t>
   </si>
   <si>
+    <t xml:space="preserve">Condensin-2 complex subunit D3 (hCAP-D3)</t>
+  </si>
+  <si>
     <t xml:space="preserve">YES (PSP)</t>
   </si>
   <si>
@@ -70,12 +76,18 @@
     <t xml:space="preserve">P18858</t>
   </si>
   <si>
+    <t xml:space="preserve">DNA ligase 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">ube4b</t>
   </si>
   <si>
     <t xml:space="preserve">O95155</t>
   </si>
   <si>
+    <t xml:space="preserve">Ubiquitin conjugation factor E4 B </t>
+  </si>
+  <si>
     <t xml:space="preserve">Speckles</t>
   </si>
   <si>
@@ -85,18 +97,27 @@
     <t xml:space="preserve">P49815</t>
   </si>
   <si>
+    <t xml:space="preserve">Tuberin (Tuberous sclerosis 2 protein)</t>
+  </si>
+  <si>
     <t xml:space="preserve">at2b1</t>
   </si>
   <si>
     <t xml:space="preserve">P20020</t>
   </si>
   <si>
+    <t xml:space="preserve">Plasma membrane calcium-transporting ATPase 1 (PMCA1)</t>
+  </si>
+  <si>
     <t xml:space="preserve">rptor</t>
   </si>
   <si>
     <t xml:space="preserve">Q8N122</t>
   </si>
   <si>
+    <t xml:space="preserve">Regulatory-associated protein of mTOR (Raptor)</t>
+  </si>
+  <si>
     <t xml:space="preserve">stress granules,Stress granules </t>
   </si>
   <si>
@@ -106,12 +127,18 @@
     <t xml:space="preserve">Q13112</t>
   </si>
   <si>
+    <t xml:space="preserve">Chromatin assembly factor 1 subunit B (CAF-1 subunit B)</t>
+  </si>
+  <si>
     <t xml:space="preserve">pcm1</t>
   </si>
   <si>
     <t xml:space="preserve">Q15154</t>
   </si>
   <si>
+    <t xml:space="preserve">Pericentriolar material 1 protein (PCM-1)</t>
+  </si>
+  <si>
     <t xml:space="preserve">YES (Rai et al, 2018)</t>
   </si>
   <si>
@@ -121,6 +148,9 @@
     <t xml:space="preserve">Q8NE71</t>
   </si>
   <si>
+    <t xml:space="preserve">ATP-binding cassette sub-family F member 1 (TNF-alpha-stimulated ABC protein)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nucleoli   </t>
   </si>
   <si>
@@ -130,6 +160,9 @@
     <t xml:space="preserve">Q8TEQ6</t>
   </si>
   <si>
+    <t xml:space="preserve">Gem-associated protein 5 (Gemin5)</t>
+  </si>
+  <si>
     <t xml:space="preserve">YES (Uniprot)</t>
   </si>
   <si>
@@ -139,30 +172,45 @@
     <t xml:space="preserve">Q8IV36</t>
   </si>
   <si>
+    <t xml:space="preserve">Protein HID1 (Down-regulated in multiple cancers 1) </t>
+  </si>
+  <si>
     <t xml:space="preserve">tdrkh</t>
   </si>
   <si>
     <t xml:space="preserve">Q9Y2W6</t>
   </si>
   <si>
+    <t xml:space="preserve">Tudor and KH domain-containing protein</t>
+  </si>
+  <si>
     <t xml:space="preserve">tdrd6</t>
   </si>
   <si>
     <t xml:space="preserve">O60522</t>
   </si>
   <si>
+    <t xml:space="preserve">Tudor domain-containing protein 6 (Antigen NY-CO-45)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ctr9</t>
   </si>
   <si>
     <t xml:space="preserve">Q6PD62</t>
   </si>
   <si>
+    <t xml:space="preserve">RNA polymerase-associated protein CTR9 homolog (SH2 domain-binding protein 1)</t>
+  </si>
+  <si>
     <t xml:space="preserve">sf3b1</t>
   </si>
   <si>
     <t xml:space="preserve">O75533</t>
   </si>
   <si>
+    <t xml:space="preserve">Splicing factor 3B subunit 1 (SAP 155)</t>
+  </si>
+  <si>
     <t xml:space="preserve">P-bodies, speckles,P-bodies </t>
   </si>
   <si>
@@ -172,6 +220,9 @@
     <t xml:space="preserve">P49792</t>
   </si>
   <si>
+    <t xml:space="preserve">E3 SUMO-protein ligase RanBP2 (Nucleoporin Nup358)</t>
+  </si>
+  <si>
     <t xml:space="preserve">PML, NPC,NPC </t>
   </si>
   <si>
@@ -181,12 +232,18 @@
     <t xml:space="preserve">Q7Z3E5</t>
   </si>
   <si>
+    <t xml:space="preserve">LisH domain-containing protein ARMC9 (NS21)</t>
+  </si>
+  <si>
     <t xml:space="preserve">chsp1</t>
   </si>
   <si>
     <t xml:space="preserve">Q9Y2V2</t>
   </si>
   <si>
+    <t xml:space="preserve">Calcium-regulated heat-stable protein 1 (CRHSP-24)</t>
+  </si>
+  <si>
     <t xml:space="preserve"> stress granules,Stress granules    </t>
   </si>
   <si>
@@ -196,6 +253,9 @@
     <t xml:space="preserve">O60832</t>
   </si>
   <si>
+    <t xml:space="preserve">H/ACA ribonucleoprotein complex subunit DKC1 (Dyskerin)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Stress granules,Nucleoli,Cajal bodies</t>
   </si>
   <si>
@@ -205,6 +265,9 @@
     <t xml:space="preserve">Q14152</t>
   </si>
   <si>
+    <t xml:space="preserve">Eukaryotic translation initiation factor 3 subunit A (eIF3a)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Stress granules</t>
   </si>
   <si>
@@ -212,6 +275,9 @@
   </si>
   <si>
     <t xml:space="preserve">Q9Y6A5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transforming acidic coiled-coil-containing protein 3 (ERIC-1)</t>
   </si>
 </sst>
 </file>
@@ -221,7 +287,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -243,12 +309,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -302,7 +362,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -323,34 +383,37 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C37" activeCellId="0" sqref="A29:C37"/>
+      <selection pane="bottomLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="1" style="0" width="15.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="15.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="80.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="0" width="15.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>3</v>
       </c>
@@ -372,466 +435,522 @@
       <c r="G2" s="0" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H2" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="F3" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>13</v>
+      <c r="G4" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>13</v>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="E6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="F6" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>13</v>
+      <c r="E7" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>13</v>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>13</v>
+      <c r="E11" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="E12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="F12" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>13</v>
+      <c r="E13" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="E14" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="F14" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="E15" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E15" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="F15" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>13</v>
+      <c r="E16" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>36</v>
+        <v>15</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="E17" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E17" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="F17" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="0" t="s">
         <v>47</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>13</v>
+        <v>65</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>66</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>12</v>
+      <c r="E18" s="0" t="n">
+        <v>13</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>13</v>
+      <c r="E19" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>12</v>
+      <c r="E20" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>55</v>
+        <v>14</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="E21" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E21" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="F21" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>58</v>
+        <v>15</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="D22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>13</v>
+      <c r="E22" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="E23" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="F23" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>15</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
